--- a/biospecdb/apps/uploader/tests/data/sample.xlsx
+++ b/biospecdb/apps/uploader/tests/data/sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vkluzner/Work/git/BSR/biospecdb/biospecdb/apps/uploader/tests/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamienoss/repos/biospecdb-project/biospecdb/biospecdb/apps/uploader/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFB2F0AA-9CD2-A741-9282-9DB7364D71F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06C4EEF-D922-E046-B6EB-FDB347A246DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>PATIENT ID</t>
+  </si>
+  <si>
+    <t>4efb03c5-27cd-4b40-82d9-c602e0ef7b80</t>
   </si>
 </sst>
 </file>
@@ -389,10 +392,13 @@
   <dimension ref="A1:BQE2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="39.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1799" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -5794,7 +5800,7 @@
       </c>
     </row>
     <row r="2" spans="1:1799" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
